--- a/student_Hnezdilova/student_Hnezdilova.xlsx
+++ b/student_Hnezdilova/student_Hnezdilova.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -345,12 +345,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
@@ -362,7 +366,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -375,7 +379,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
